--- a/freezedried_data/dataToLoad.xlsx
+++ b/freezedried_data/dataToLoad.xlsx
@@ -279,7 +279,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -323,7 +323,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -337,7 +337,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -365,7 +365,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -404,7 +404,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C3:C6 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA27" activeCellId="0" sqref="AA27"/>
+      <selection pane="topLeft" activeCell="AA27" activeCellId="1" sqref="C3:C6 AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3115,7 +3115,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD31" activeCellId="0" sqref="AD31"/>
+      <selection pane="topLeft" activeCell="AD31" activeCellId="1" sqref="C3:C6 AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5997,7 +5997,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="C3:C6 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -9749,7 +9749,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C3:C6 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -13501,7 +13501,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
+      <selection pane="topLeft" activeCell="U13" activeCellId="1" sqref="C3:C6 U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17255,7 +17255,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="1" sqref="C3:C6 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/freezedried_data/dataToLoad.xlsx
+++ b/freezedried_data/dataToLoad.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="971" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="971" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agents" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Agent_id</t>
   </si>
@@ -59,13 +59,7 @@
     <t>maize</t>
   </si>
   <si>
-    <t>wheat</t>
-  </si>
-  <si>
     <t>cotton</t>
-  </si>
-  <si>
-    <t>nothing</t>
   </si>
   <si>
     <t>y/x</t>
@@ -78,6 +72,33 @@
   </si>
   <si>
     <t>tenant_id</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>maize seeds</t>
+  </si>
+  <si>
+    <t>cotton seeds</t>
+  </si>
+  <si>
+    <t>animal food</t>
+  </si>
+  <si>
+    <t>durum wheat</t>
+  </si>
+  <si>
+    <t>durum wheat seeds</t>
+  </si>
+  <si>
+    <t>tobbaco</t>
+  </si>
+  <si>
+    <t>tobbaco leaves</t>
   </si>
 </sst>
 </file>
@@ -141,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +177,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,55 +661,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="A1:AD1 B2"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="8.7109375" style="6"/>
+    <col min="1026" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -698,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AD1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -3336,7 +3386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -3347,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -6225,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -9103,7 +9153,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3">
         <v>0</v>
@@ -11983,7 +12033,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -14861,13 +14911,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
